--- a/src/data/reports/AL123.xlsx
+++ b/src/data/reports/AL123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="415">
   <si>
     <t>Index</t>
   </si>
@@ -106,16 +106,19 @@
     <t>Imported dbSNP ID</t>
   </si>
   <si>
+    <t>Benign</t>
+  </si>
+  <si>
     <t>Uncertain_significance</t>
   </si>
   <si>
+    <t>Likely_benign</t>
+  </si>
+  <si>
     <t>Pathogenic</t>
   </si>
   <si>
-    <t>Benign</t>
-  </si>
-  <si>
-    <t>Likely_benign</t>
+    <t>Likely_pathogenic</t>
   </si>
   <si>
     <t>XM_011511359.1:c.77T&gt;C</t>
@@ -1719,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2">
         <v>118014087</v>
@@ -1737,46 +1740,46 @@
         <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="U2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="V2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X2">
         <v>1</v>
@@ -1785,19 +1788,19 @@
         <v>1</v>
       </c>
       <c r="Z2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB2" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AD2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AE2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -1807,14 +1810,17 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G3">
         <v>47083895</v>
@@ -1826,46 +1832,46 @@
         <v>1039</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="T3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="V3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="X3">
         <v>12</v>
@@ -1874,19 +1880,19 @@
         <v>12</v>
       </c>
       <c r="Z3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AB3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AC3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AD3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AE3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -1896,14 +1902,17 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4">
         <v>128486108</v>
@@ -1915,46 +1924,46 @@
         <v>1956</v>
       </c>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="U4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="V4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="X4">
         <v>3</v>
@@ -1963,19 +1972,19 @@
         <v>2</v>
       </c>
       <c r="Z4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AB4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AC4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AD4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:31">
@@ -1985,14 +1994,17 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G5">
         <v>105275672</v>
@@ -2004,46 +2016,46 @@
         <v>1705</v>
       </c>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="S5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="V5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="X5">
         <v>12</v>
@@ -2052,19 +2064,19 @@
         <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AB5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AC5" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AE5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:31">
@@ -2075,13 +2087,13 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G6">
         <v>146639306</v>
@@ -2093,46 +2105,46 @@
         <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="S6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="T6" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="V6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="W6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="X6">
         <v>1</v>
@@ -2141,19 +2153,19 @@
         <v>1</v>
       </c>
       <c r="Z6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AB6" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AC6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AD6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AE6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -2164,13 +2176,13 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G7">
         <v>186707986</v>
@@ -2182,46 +2194,46 @@
         <v>6</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="S7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="U7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="X7">
         <v>2</v>
@@ -2230,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="Z7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AB7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AC7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AD7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AE7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -2253,16 +2265,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G8">
         <v>21971138</v>
@@ -2274,46 +2286,46 @@
         <v>485</v>
       </c>
       <c r="J8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="U8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="V8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X8">
         <v>2</v>
@@ -2322,19 +2334,19 @@
         <v>2</v>
       </c>
       <c r="Z8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AC8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AD8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AE8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -2344,14 +2356,17 @@
       <c r="B9">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G9">
         <v>21974721</v>
@@ -2363,46 +2378,46 @@
         <v>652</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="U9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="V9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="X9">
         <v>1</v>
@@ -2411,19 +2426,19 @@
         <v>1</v>
       </c>
       <c r="Z9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AB9" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AC9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AD9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -2433,14 +2448,17 @@
       <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10">
         <v>36840593</v>
@@ -2452,46 +2470,46 @@
         <v>788</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="S10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="U10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="V10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X10">
         <v>7</v>
@@ -2500,13 +2518,13 @@
         <v>7</v>
       </c>
       <c r="Z10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AE10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -2516,14 +2534,17 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11">
         <v>36840626</v>
@@ -2535,46 +2556,46 @@
         <v>675</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="S11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="T11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="U11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="V11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="X11">
         <v>7</v>
@@ -2583,19 +2604,19 @@
         <v>7</v>
       </c>
       <c r="Z11" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AB11" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AC11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AD11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -2605,14 +2626,17 @@
       <c r="B12">
         <v>11</v>
       </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>136496886</v>
@@ -2624,46 +2648,46 @@
         <v>1802</v>
       </c>
       <c r="J12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T12" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="U12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="V12" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W12" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="X12">
         <v>34</v>
@@ -2672,19 +2696,19 @@
         <v>34</v>
       </c>
       <c r="Z12" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AB12" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AC12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AD12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -2694,14 +2718,17 @@
       <c r="B13">
         <v>12</v>
       </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
       <c r="D13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13">
         <v>67884960</v>
@@ -2713,46 +2740,46 @@
         <v>648</v>
       </c>
       <c r="J13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R13" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S13" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T13" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U13" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="V13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="X13">
         <v>1</v>
@@ -2761,10 +2788,10 @@
         <v>1</v>
       </c>
       <c r="Z13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AB13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -2775,16 +2802,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14">
         <v>118478120</v>
@@ -2796,46 +2823,46 @@
         <v>1795</v>
       </c>
       <c r="J14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R14" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="V14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="X14">
         <v>6</v>
@@ -2844,10 +2871,10 @@
         <v>6</v>
       </c>
       <c r="Z14" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AB14" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -2858,16 +2885,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15">
         <v>121804751</v>
@@ -2879,46 +2906,46 @@
         <v>663</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N15" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T15" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="U15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="V15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X15">
         <v>2</v>
@@ -2927,13 +2954,13 @@
         <v>1</v>
       </c>
       <c r="Z15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB15" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AE15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -2943,14 +2970,17 @@
       <c r="B16">
         <v>15</v>
       </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G16">
         <v>121804760</v>
@@ -2962,46 +2992,46 @@
         <v>697</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="S16" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T16" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="U16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="V16" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X16">
         <v>2</v>
@@ -3010,19 +3040,19 @@
         <v>1</v>
       </c>
       <c r="Z16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB16" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AC16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AD16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -3032,14 +3062,17 @@
       <c r="B17">
         <v>16</v>
       </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G17">
         <v>121804763</v>
@@ -3051,46 +3084,46 @@
         <v>688</v>
       </c>
       <c r="J17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T17" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="U17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="V17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X17">
         <v>2</v>
@@ -3099,19 +3132,19 @@
         <v>1</v>
       </c>
       <c r="Z17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB17" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AC17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AD17" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AE17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -3122,16 +3155,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G18">
         <v>121804766</v>
@@ -3143,46 +3176,46 @@
         <v>707</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S18" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="U18" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="V18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X18">
         <v>2</v>
@@ -3191,13 +3224,13 @@
         <v>1</v>
       </c>
       <c r="Z18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AE18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -3207,14 +3240,17 @@
       <c r="B19">
         <v>18</v>
       </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G19">
         <v>121804769</v>
@@ -3226,46 +3262,46 @@
         <v>742</v>
       </c>
       <c r="J19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M19" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P19" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q19" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="U19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="V19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X19">
         <v>2</v>
@@ -3274,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="Z19" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AE19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -3291,16 +3327,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G20">
         <v>121810184</v>
@@ -3312,46 +3348,46 @@
         <v>897</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M20" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="U20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="V20" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="X20">
         <v>6</v>
@@ -3360,10 +3396,10 @@
         <v>5</v>
       </c>
       <c r="Z20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AB20" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -3374,16 +3410,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G21">
         <v>28018505</v>
@@ -3395,46 +3431,46 @@
         <v>1791</v>
       </c>
       <c r="J21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R21" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="S21" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T21" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="U21" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="V21" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="X21">
         <v>19</v>
@@ -3443,19 +3479,19 @@
         <v>19</v>
       </c>
       <c r="Z21" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AB21" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AC21" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AD21" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AE21" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -3466,13 +3502,13 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G22">
         <v>89783072</v>
@@ -3484,46 +3520,46 @@
         <v>9</v>
       </c>
       <c r="J22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q22" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T22" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="U22" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="V22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X22">
         <v>16</v>
@@ -3532,19 +3568,19 @@
         <v>16</v>
       </c>
       <c r="Z22" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AB22" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AC22" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AD22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -3554,14 +3590,17 @@
       <c r="B23">
         <v>22</v>
       </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
       <c r="D23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23">
         <v>7669659</v>
@@ -3573,46 +3612,46 @@
         <v>1045</v>
       </c>
       <c r="J23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K23" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L23" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q23" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S23" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T23" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="U23" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="V23" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X23">
         <v>11</v>
@@ -3621,13 +3660,13 @@
         <v>10</v>
       </c>
       <c r="Z23" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AE23" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -3637,14 +3676,17 @@
       <c r="B24">
         <v>23</v>
       </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24">
         <v>7669662</v>
@@ -3656,46 +3698,46 @@
         <v>867</v>
       </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q24" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="S24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="T24" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="U24" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="V24" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X24">
         <v>11</v>
@@ -3704,19 +3746,19 @@
         <v>10</v>
       </c>
       <c r="Z24" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AC24" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD24" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AE24" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -3726,14 +3768,17 @@
       <c r="B25">
         <v>24</v>
       </c>
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25">
         <v>7676154</v>
@@ -3745,46 +3790,46 @@
         <v>1230</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R25" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="T25" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="U25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="V25" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W25" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="X25">
         <v>4</v>
@@ -3793,19 +3838,19 @@
         <v>3</v>
       </c>
       <c r="Z25" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AB25" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AC25" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AD25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AE25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -3815,14 +3860,17 @@
       <c r="B26">
         <v>25</v>
       </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
       <c r="D26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G26">
         <v>63318354</v>
@@ -3834,46 +3882,46 @@
         <v>1285</v>
       </c>
       <c r="J26" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S26" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="T26" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="U26" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="V26" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W26" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="X26">
         <v>2</v>
@@ -3882,19 +3930,19 @@
         <v>1</v>
       </c>
       <c r="Z26" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AB26" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AC26" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE26" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -3904,14 +3952,17 @@
       <c r="B27">
         <v>26</v>
       </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
       <c r="D27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27">
         <v>1196817</v>
@@ -3923,46 +3974,46 @@
         <v>1229</v>
       </c>
       <c r="J27" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="N27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="S27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U27" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="V27" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X27">
         <v>6</v>
@@ -3971,19 +4022,19 @@
         <v>6</v>
       </c>
       <c r="Z27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AB27" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AD27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE27" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -3993,14 +4044,17 @@
       <c r="B28">
         <v>27</v>
       </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28">
         <v>40052275</v>
@@ -4012,46 +4066,46 @@
         <v>634</v>
       </c>
       <c r="J28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N28" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S28" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T28" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="U28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V28" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W28" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="X28">
         <v>14</v>
@@ -4060,19 +4114,19 @@
         <v>13</v>
       </c>
       <c r="Z28" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AB28" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AC28" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AD28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE28" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -4083,10 +4137,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29">
         <v>77682471</v>
@@ -4098,46 +4152,46 @@
         <v>624</v>
       </c>
       <c r="J29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R29" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S29" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="T29" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="U29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="V29" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W29" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="X29">
         <v>9</v>
@@ -4146,13 +4200,13 @@
         <v>9</v>
       </c>
       <c r="Z29" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AB29" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AE29" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -4162,14 +4216,17 @@
       <c r="B30">
         <v>29</v>
       </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30">
         <v>130013883</v>
@@ -4181,46 +4238,46 @@
         <v>357</v>
       </c>
       <c r="J30" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M30" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="S30" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="T30" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="U30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="V30" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W30" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="X30">
         <v>4</v>
@@ -4229,19 +4286,19 @@
         <v>3</v>
       </c>
       <c r="Z30" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB30" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AC30" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AD30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE30" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -4251,14 +4308,17 @@
       <c r="B31">
         <v>30</v>
       </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31">
         <v>130013887</v>
@@ -4270,46 +4330,46 @@
         <v>332</v>
       </c>
       <c r="J31" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M31" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O31" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q31" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="S31" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="T31" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="U31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W31" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="X31">
         <v>4</v>
@@ -4318,13 +4378,13 @@
         <v>3</v>
       </c>
       <c r="Z31" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AB31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AE31" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -4334,14 +4394,17 @@
       <c r="B32">
         <v>31</v>
       </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32">
         <v>1196817</v>
@@ -4353,46 +4416,46 @@
         <v>1077</v>
       </c>
       <c r="J32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M32" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O32" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="S32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="T32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="U32" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="V32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W32" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="X32">
         <v>6</v>
@@ -4401,10 +4464,10 @@
         <v>6</v>
       </c>
       <c r="Z32" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AB32" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -4415,13 +4478,13 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33">
         <v>15326</v>
@@ -4433,58 +4496,58 @@
         <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K33" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="S33" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="U33" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V33" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="W33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AB33" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AE33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
